--- a/experiment/data.FF.ge.n.xlsx
+++ b/experiment/data.FF.ge.n.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\octet.formfactor\experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74688E97-AF1C-4DED-815D-BE6136E9E68F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77E45B15-13DE-4A76-8C9A-8B82B1E40A14}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" firstSheet="4" activeTab="9" xr2:uid="{D2AC6388-5219-4F37-B012-F92F0D5CC409}"/>
   </bookViews>
@@ -40,33 +40,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="8">
   <si>
     <t>p8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Q2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>q2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GeV^2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GE.n</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ge.n</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GEV-2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -474,7 +454,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="A3:D3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -488,18 +468,18 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
-        <v>9</v>
-      </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -528,6 +508,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -536,7 +517,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -546,21 +527,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -626,7 +607,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="A3:D3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -639,18 +620,18 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -701,7 +682,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:D4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -714,13 +695,13 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
         <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -776,7 +757,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="A3:D3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -791,18 +772,18 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
         <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -839,7 +820,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="A3:D3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -849,18 +830,18 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -911,18 +892,18 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -987,13 +968,13 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H1" t="s">
         <v>0</v>
@@ -1001,7 +982,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1038,7 +1019,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1048,21 +1029,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1127,28 +1108,28 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B2">
         <v>1</v>
